--- a/Proposal/Proposal.xlsx
+++ b/Proposal/Proposal.xlsx
@@ -5,29 +5,21 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HeoBayMau\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TMDT\Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15465" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Proposal" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
-  <si>
-    <t>BÁO CÁO KHẢ THI CỦA ĐỒ ÁN TMĐT - NHÓM _______</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>MSSV</t>
   </si>
@@ -149,67 +141,96 @@
     <t>Nguyễn Đăng Thiên Tuấn</t>
   </si>
   <si>
-    <t>Bán giày</t>
+    <t>C2C</t>
+  </si>
+  <si>
+    <t>_ Merchant cũng có thể thống kê đơn hàng của mình (theo ngày, theo sản phẩm, khách hàng và tình trạng đơn hàng)</t>
+  </si>
+  <si>
+    <t>Không quy đổi ra tiền ảo</t>
+  </si>
+  <si>
+    <t>Sau khi giao hàng thành công, hoá đơn sẽ tự động cập nhật</t>
+  </si>
+  <si>
+    <t>Thanh toán trực tiếp (cash) và qua Paypal</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>Có quản lý tồn kho, lúc người bán đăng tin bán nhập số lượng và trừ tồn khi phát sinh đơn đặt hàng từ người mua</t>
+  </si>
+  <si>
+    <t>_ Đăng ký tài khoản bình thường trên web và đăng ký hoàn toàn miễn phí</t>
+  </si>
+  <si>
+    <t>_ Mua hàng thông qua chức năng giỏ hàng, nhập đầy đủ thông tin thanh toán để có thể đặt hàng và tạo hoá đơn</t>
+  </si>
+  <si>
+    <t>_ Được đánh giá Merchant</t>
+  </si>
+  <si>
+    <t>Dựa trên tiền vật lý và tiền ảo của Paypal</t>
+  </si>
+  <si>
+    <t>Thanh toán COD hoặc chuyển tiền qua Paypal</t>
+  </si>
+  <si>
+    <t>_ Được xem hoá đơn, quản lý đơn đặt hàng của mình</t>
+  </si>
+  <si>
+    <t>- Xem đơn hàng của người mua và người bán (khi có tranh chấp của 2 bên)</t>
+  </si>
+  <si>
+    <t>Sử dụng qua paypal</t>
+  </si>
+  <si>
+    <t>Xác nhận đăng kí tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không lưu lại số tài khoản của khách hàng,  thông tin người mua đc bảo mật
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không lưu lại số tài khoản của khách hàng, thông tin người mua đc bảo mật
+</t>
+  </si>
+  <si>
+    <t>Thống kê đánh giá của user bằng điểm</t>
+  </si>
+  <si>
+    <t>Giày</t>
   </si>
   <si>
     <t>Kinh doanh trực tuyến</t>
   </si>
   <si>
-    <t>C2C</t>
-  </si>
-  <si>
-    <t>Thu từ hoa hồng</t>
-  </si>
-  <si>
-    <t>Mua bán giày</t>
-  </si>
-  <si>
-    <t>_ Được đăng ký tài khoản miễn phí. Khi cần upgrade lên merchant, cần điền đầy đủ thông tin để chứng thực. Ngoài ra, để được đăng bán hàng, merchant cần phải mua kho để có thể chứa sản phẩm bán</t>
-  </si>
-  <si>
-    <t>_ Merchant trước khi đăng bán phải qua kho để gửi đồ, sau đó nhân viên kho sẽ kiểm tra, xác nhận và tạo sản phẩm cho account của merchant. Sau đó, merchant có thể sửa đổi thông tin, thêm hình,…</t>
-  </si>
-  <si>
-    <t>_ Merchant cũng có thể thống kê đơn hàng của mình (theo ngày, theo sản phẩm, khách hàng và tình trạng đơn hàng)</t>
-  </si>
-  <si>
-    <t>Không quy đổi ra tiền ảo</t>
-  </si>
-  <si>
-    <t>Sau khi giao hàng thành công, hoá đơn sẽ tự động cập nhật</t>
-  </si>
-  <si>
-    <t>Thanh toán trực tiếp (cash) và qua Paypal</t>
-  </si>
-  <si>
-    <t>Không</t>
-  </si>
-  <si>
-    <t>Mã hoá MD5 mật khẩu cho user</t>
-  </si>
-  <si>
-    <t>Có quản lý tồn kho, lúc người bán đăng tin bán nhập số lượng và trừ tồn khi phát sinh đơn đặt hàng từ người mua</t>
-  </si>
-  <si>
-    <t>_ Đăng ký tài khoản bình thường trên web và đăng ký hoàn toàn miễn phí</t>
-  </si>
-  <si>
-    <t>_ Mua hàng thông qua chức năng giỏ hàng, nhập đầy đủ thông tin thanh toán để có thể đặt hàng và tạo hoá đơn</t>
-  </si>
-  <si>
-    <t>_ Được quản lý hoá đơn của mình</t>
-  </si>
-  <si>
-    <t>_ Được đánh giá Merchant</t>
-  </si>
-  <si>
-    <t>Dựa trên tiền vật lý và tiền ảo của Paypal</t>
-  </si>
-  <si>
-    <t>Thanh toán COD hoặc chuyển tiền qua Paypal</t>
-  </si>
-  <si>
-    <t>Mã hoá mật khẩu thông tin người mua</t>
+    <t>Thu từ quảng cáo</t>
+  </si>
+  <si>
+    <t>Người mua/bán giày</t>
+  </si>
+  <si>
+    <t>_ Được đăng ký tài khoản miễn phí. Có 2 lựa chọn khi đăng ký là Customer và Merchant. Khi đăng ký làm merchant, cần điền đầy đủ thông tin để chứng thực</t>
+  </si>
+  <si>
+    <t>_ Merchant sau khi đăng bán phải chờ Webmaster kiểm tra, xác nhận sản phẩm của merchant. Sau đó, merchant có thể sửa đổi thông tin, thêm hình,…</t>
+  </si>
+  <si>
+    <t>Thêm sửa khoá user</t>
+  </si>
+  <si>
+    <t>Không quy đổi tiền thành tiền ảo</t>
+  </si>
+  <si>
+    <t>Xác nhận sản phẩm khi Merchant đăng lên</t>
+  </si>
+  <si>
+    <t>Tài khoản miễn phí, quản lý lợi nhuận theo khoảng thời gian do webmaster chọn</t>
+  </si>
+  <si>
+    <t>BÁO CÁO KHẢ THI CỦA ĐỒ ÁN TMĐT - NHÓM 9</t>
   </si>
 </sst>
 </file>
@@ -279,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -419,12 +440,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,9 +479,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -492,6 +521,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,51 +588,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -558,17 +599,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -910,10 +945,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" workbookViewId="0">
+      <selection sqref="A1:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -926,15 +964,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
+      <c r="A1" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -948,16 +986,16 @@
     <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="36"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -966,11 +1004,11 @@
         <v>3115410179</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -979,11 +1017,11 @@
         <v>3115410139</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -992,529 +1030,576 @@
         <v>3115410098</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="5">
         <v>3115410171</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
         <v>3115410176</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="50"/>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="31" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="38" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="38" t="s">
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+    </row>
+    <row r="21" spans="1:7" s="10" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="38" t="s">
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="38" t="s">
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" s="10" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="38" t="s">
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:7" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="44" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-    </row>
-    <row r="19" spans="1:7" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="44" t="s">
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-    </row>
-    <row r="20" spans="1:7" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="44" t="s">
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-    </row>
-    <row r="21" spans="1:7" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="38" t="s">
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:7" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="38" t="s">
+      <c r="F35" s="26"/>
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="1:7" s="10" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" s="11" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="38" t="s">
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:7" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-    </row>
-    <row r="25" spans="1:7" s="11" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" spans="1:7" s="11" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" s="11" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="28" t="s">
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-    </row>
-    <row r="28" spans="1:7" s="11" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="38" t="s">
+      <c r="C38" s="32"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+    </row>
+    <row r="39" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="35"/>
+    </row>
+    <row r="41" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="26"/>
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="1:7" s="10" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" spans="1:7" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="46" t="s">
+      <c r="F45" s="26"/>
+      <c r="G45" s="27"/>
+    </row>
+    <row r="46" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="30"/>
+      <c r="G46" s="31"/>
+    </row>
+    <row r="47" spans="1:7" s="10" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="27"/>
+    </row>
+    <row r="48" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" spans="1:7" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="35"/>
+    </row>
+    <row r="50" spans="1:7" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-    </row>
-    <row r="30" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:7" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="1:7" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="38" t="s">
+      <c r="F50" s="26"/>
+      <c r="G50" s="27"/>
+    </row>
+    <row r="51" spans="1:7" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-    </row>
-    <row r="33" spans="1:7" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-    </row>
-    <row r="34" spans="1:7" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="40"/>
-    </row>
-    <row r="35" spans="1:7" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
-    </row>
-    <row r="36" spans="1:7" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="40"/>
-    </row>
-    <row r="37" spans="1:7" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="40"/>
-    </row>
-    <row r="38" spans="1:7" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
-    </row>
-    <row r="39" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="1:7" s="11" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
-    </row>
-    <row r="41" spans="1:7" s="11" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" s="11" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" s="11" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" s="11" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
-    </row>
-    <row r="46" spans="1:7" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
-    </row>
-    <row r="47" spans="1:7" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:7" s="11" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="24" t="s">
+      <c r="F51" s="26"/>
+      <c r="G51" s="27"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="73">
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E52:G52"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="E22:G22"/>
@@ -1522,64 +1607,69 @@
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E26:G26"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A49:G49"/>
     <mergeCell ref="E32:G32"/>
     <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="0.58000000000000007" bottom="0.59055118110236227" header="0.37" footer="0.6100000000000001"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="7" max="1048575" man="1"/>
   </colBreaks>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Proposal/Proposal.xlsx
+++ b/Proposal/Proposal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TMDT\Proposal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,11 +15,16 @@
     <sheet name="Proposal" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>MSSV</t>
   </si>
@@ -150,9 +155,6 @@
     <t>Không quy đổi ra tiền ảo</t>
   </si>
   <si>
-    <t>Sau khi giao hàng thành công, hoá đơn sẽ tự động cập nhật</t>
-  </si>
-  <si>
     <t>Thanh toán trực tiếp (cash) và qua Paypal</t>
   </si>
   <si>
@@ -165,19 +167,10 @@
     <t>_ Đăng ký tài khoản bình thường trên web và đăng ký hoàn toàn miễn phí</t>
   </si>
   <si>
-    <t>_ Mua hàng thông qua chức năng giỏ hàng, nhập đầy đủ thông tin thanh toán để có thể đặt hàng và tạo hoá đơn</t>
-  </si>
-  <si>
-    <t>_ Được đánh giá Merchant</t>
-  </si>
-  <si>
     <t>Dựa trên tiền vật lý và tiền ảo của Paypal</t>
   </si>
   <si>
     <t>Thanh toán COD hoặc chuyển tiền qua Paypal</t>
-  </si>
-  <si>
-    <t>_ Được xem hoá đơn, quản lý đơn đặt hàng của mình</t>
   </si>
   <si>
     <t>- Xem đơn hàng của người mua và người bán (khi có tranh chấp của 2 bên)</t>
@@ -206,38 +199,66 @@
     <t>Kinh doanh trực tuyến</t>
   </si>
   <si>
-    <t>Thu từ quảng cáo</t>
-  </si>
-  <si>
     <t>Người mua/bán giày</t>
   </si>
   <si>
-    <t>_ Được đăng ký tài khoản miễn phí. Có 2 lựa chọn khi đăng ký là Customer và Merchant. Khi đăng ký làm merchant, cần điền đầy đủ thông tin để chứng thực</t>
-  </si>
-  <si>
-    <t>_ Merchant sau khi đăng bán phải chờ Webmaster kiểm tra, xác nhận sản phẩm của merchant. Sau đó, merchant có thể sửa đổi thông tin, thêm hình,…</t>
-  </si>
-  <si>
     <t>Thêm sửa khoá user</t>
   </si>
   <si>
-    <t>Không quy đổi tiền thành tiền ảo</t>
-  </si>
-  <si>
-    <t>Xác nhận sản phẩm khi Merchant đăng lên</t>
-  </si>
-  <si>
-    <t>Tài khoản miễn phí, quản lý lợi nhuận theo khoảng thời gian do webmaster chọn</t>
-  </si>
-  <si>
     <t>BÁO CÁO KHẢ THI CỦA ĐỒ ÁN TMĐT - NHÓM 9</t>
+  </si>
+  <si>
+    <t>Tiền quảng cáo và gian hàng</t>
+  </si>
+  <si>
+    <t>Các quyền của người bán: Quản lý sản phẩm bao gồm việc đăng bán sản phẩm và chỉnh sửa thông tin của sản phẩm. Quản lý đơn đặt hàng: Thay đổi thông tin giao hàng như trạng thái, ngày giao hàng. Đối với đơn hàng đã kết thúc ( đơn hàng ở trạng thái giao dịch thành công hoặc huỷ đơn hàng) người bán có quyền đánh giá người mua của đơn hàng đó</t>
+  </si>
+  <si>
+    <t>Người bán được quyền cập nhật trạng thái đơn hàng. Khi người giao hàng mang tiền hàng từ customer về lại cho người bán, người bán có thể cập nhật trạng thái đơn hàng thành thành công hoặc bị huỷ nếu hàng bị trả về.</t>
+  </si>
+  <si>
+    <t>Các chức năng của người mua: Quản lý giỏ hàng ( thêm, cập nhật số lượng sản phẩm, xoá sản phẩm)</t>
+  </si>
+  <si>
+    <t>Người mua được quyền xem lại  đơn hàng mình đã đăt, ngừoi mua có thể xác  nhận đã nhận được hàng sau khi đơn hàng thành công</t>
+  </si>
+  <si>
+    <t>Đối với mỗi đơn hàng thành công người mua được quyền đánh giá người bán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thống kê lợi nhuận thu được từ quảng cáo và gian hàng theo quãng thời gian </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Người bán đăng ký tài khoản thông qua trang đăng kí của người bán, người bán cần điền đầy đủ thông tin để xác thực tài khoản. Để có thể đăng bán sản phẩm, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>người bán cần mua gian hàng theo các mức giá:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,13 +312,54 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -456,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -521,33 +583,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -575,35 +649,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -950,11 +1039,11 @@
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:G52"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -963,18 +1052,18 @@
     <col min="7" max="7" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="27.95" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:7" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -983,7 +1072,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="24" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -992,13 +1081,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="40"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="24" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="5">
         <v>3115410179</v>
@@ -1007,11 +1096,11 @@
         <v>35</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="24" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
         <v>3115410139</v>
@@ -1020,11 +1109,11 @@
         <v>36</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="24" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
         <v>3115410098</v>
@@ -1033,12 +1122,12 @@
         <v>37</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:7" ht="24" customHeight="1">
+      <c r="A7" s="25"/>
       <c r="B7" s="5">
         <v>3115410171</v>
       </c>
@@ -1046,11 +1135,11 @@
         <v>38</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
         <v>3115410176</v>
@@ -1059,11 +1148,11 @@
         <v>39</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="50"/>
-    </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1072,360 +1161,360 @@
       <c r="F9" s="13"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="16"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="E15" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A16" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1">
+      <c r="A17" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-    </row>
-    <row r="18" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="49"/>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" ht="63.75" customHeight="1">
       <c r="A18" s="18"/>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-    </row>
-    <row r="19" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" ht="93" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-    </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-    </row>
-    <row r="21" spans="1:7" s="10" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7" s="10" customFormat="1" ht="27.95" customHeight="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="74.099999999999994" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+    </row>
+    <row r="23" spans="1:7" s="10" customFormat="1" ht="36.950000000000003" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7" s="10" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="25" t="s">
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="33" customHeight="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1">
       <c r="A25" s="17"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1">
+      <c r="A27" s="17"/>
+      <c r="B27" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" ht="44.1" customHeight="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" ht="42" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" s="10" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
-    </row>
-    <row r="30" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="11"/>
       <c r="E30" s="12"/>
       <c r="F30" s="19"/>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+    <row r="31" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1">
+      <c r="A31" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
-    </row>
-    <row r="32" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="49"/>
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="24"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-    </row>
-    <row r="34" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+    </row>
+    <row r="34" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="59"/>
+      <c r="G34" s="60"/>
+    </row>
+    <row r="35" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A35" s="17"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27"/>
-    </row>
-    <row r="36" spans="1:7" s="10" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="1:7" s="10" customFormat="1" ht="27.95" customHeight="1">
       <c r="A36" s="17"/>
       <c r="B36" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="1:7" s="10" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" ht="21.95" customHeight="1">
       <c r="A37" s="17"/>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="27"/>
-    </row>
-    <row r="38" spans="1:7" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" ht="36" customHeight="1">
       <c r="A38" s="17"/>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="32"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="31"/>
-    </row>
-    <row r="39" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+    </row>
+    <row r="39" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A39" s="17"/>
       <c r="B39" s="21" t="s">
         <v>25</v>
@@ -1436,170 +1525,157 @@
       <c r="F39" s="19"/>
       <c r="G39" s="20"/>
     </row>
-    <row r="40" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+    <row r="40" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A40" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="35"/>
-    </row>
-    <row r="41" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+    </row>
+    <row r="41" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1">
       <c r="A41" s="17"/>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="24"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="55"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="57"/>
+    </row>
+    <row r="42" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1">
       <c r="A42" s="17"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-    </row>
-    <row r="43" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+    </row>
+    <row r="43" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1">
       <c r="A43" s="17"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="26"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1">
       <c r="A44" s="17"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="27"/>
-    </row>
-    <row r="45" spans="1:7" s="10" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
+    </row>
+    <row r="45" spans="1:7" s="10" customFormat="1" ht="42.95" customHeight="1">
       <c r="A45" s="17"/>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="24"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="11"/>
-      <c r="E45" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="27"/>
-    </row>
-    <row r="46" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1">
       <c r="A46" s="17"/>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="24"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="30"/>
-      <c r="G46" s="31"/>
-    </row>
-    <row r="47" spans="1:7" s="10" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="31"/>
+      <c r="G46" s="32"/>
+    </row>
+    <row r="47" spans="1:7" s="10" customFormat="1" ht="41.1" customHeight="1">
       <c r="A47" s="17"/>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="24"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="27"/>
-    </row>
-    <row r="48" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+    </row>
+    <row r="48" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A48" s="17"/>
       <c r="B48" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="27"/>
-    </row>
-    <row r="49" spans="1:7" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="28"/>
+    </row>
+    <row r="49" spans="1:7" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A49" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="35"/>
-    </row>
-    <row r="50" spans="1:7" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="39"/>
+    </row>
+    <row r="50" spans="1:7" s="10" customFormat="1" ht="51" customHeight="1">
       <c r="A50" s="17"/>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="24"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="27"/>
-    </row>
-    <row r="51" spans="1:7" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28"/>
+    </row>
+    <row r="51" spans="1:7" s="10" customFormat="1" ht="35.1" customHeight="1">
       <c r="A51" s="17"/>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="24"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="27"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E51" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="17"/>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="32"/>
+      <c r="C52" s="35"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="27"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="E22:G22"/>
@@ -1607,6 +1683,12 @@
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B27:C27"/>
@@ -1634,6 +1716,9 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -1671,5 +1756,10 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="7" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Proposal/Proposal.xlsx
+++ b/Proposal/Proposal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TMDT\Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>MSSV</t>
   </si>
@@ -149,12 +149,6 @@
     <t>C2C</t>
   </si>
   <si>
-    <t>_ Merchant cũng có thể thống kê đơn hàng của mình (theo ngày, theo sản phẩm, khách hàng và tình trạng đơn hàng)</t>
-  </si>
-  <si>
-    <t>Không quy đổi ra tiền ảo</t>
-  </si>
-  <si>
     <t>Thanh toán trực tiếp (cash) và qua Paypal</t>
   </si>
   <si>
@@ -164,35 +158,15 @@
     <t>Có quản lý tồn kho, lúc người bán đăng tin bán nhập số lượng và trừ tồn khi phát sinh đơn đặt hàng từ người mua</t>
   </si>
   <si>
-    <t>_ Đăng ký tài khoản bình thường trên web và đăng ký hoàn toàn miễn phí</t>
-  </si>
-  <si>
     <t>Dựa trên tiền vật lý và tiền ảo của Paypal</t>
   </si>
   <si>
     <t>Thanh toán COD hoặc chuyển tiền qua Paypal</t>
   </si>
   <si>
-    <t>- Xem đơn hàng của người mua và người bán (khi có tranh chấp của 2 bên)</t>
-  </si>
-  <si>
     <t>Sử dụng qua paypal</t>
   </si>
   <si>
-    <t>Xác nhận đăng kí tài khoản</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Không lưu lại số tài khoản của khách hàng,  thông tin người mua đc bảo mật
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Không lưu lại số tài khoản của khách hàng, thông tin người mua đc bảo mật
-</t>
-  </si>
-  <si>
-    <t>Thống kê đánh giá của user bằng điểm</t>
-  </si>
-  <si>
     <t>Giày</t>
   </si>
   <si>
@@ -202,9 +176,6 @@
     <t>Người mua/bán giày</t>
   </si>
   <si>
-    <t>Thêm sửa khoá user</t>
-  </si>
-  <si>
     <t>BÁO CÁO KHẢ THI CỦA ĐỒ ÁN TMĐT - NHÓM 9</t>
   </si>
   <si>
@@ -214,19 +185,10 @@
     <t>Các quyền của người bán: Quản lý sản phẩm bao gồm việc đăng bán sản phẩm và chỉnh sửa thông tin của sản phẩm. Quản lý đơn đặt hàng: Thay đổi thông tin giao hàng như trạng thái, ngày giao hàng. Đối với đơn hàng đã kết thúc ( đơn hàng ở trạng thái giao dịch thành công hoặc huỷ đơn hàng) người bán có quyền đánh giá người mua của đơn hàng đó</t>
   </si>
   <si>
-    <t>Người bán được quyền cập nhật trạng thái đơn hàng. Khi người giao hàng mang tiền hàng từ customer về lại cho người bán, người bán có thể cập nhật trạng thái đơn hàng thành thành công hoặc bị huỷ nếu hàng bị trả về.</t>
-  </si>
-  <si>
     <t>Các chức năng của người mua: Quản lý giỏ hàng ( thêm, cập nhật số lượng sản phẩm, xoá sản phẩm)</t>
   </si>
   <si>
-    <t>Người mua được quyền xem lại  đơn hàng mình đã đăt, ngừoi mua có thể xác  nhận đã nhận được hàng sau khi đơn hàng thành công</t>
-  </si>
-  <si>
     <t>Đối với mỗi đơn hàng thành công người mua được quyền đánh giá người bán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thống kê lợi nhuận thu được từ quảng cáo và gian hàng theo quãng thời gian </t>
   </si>
   <si>
     <r>
@@ -234,31 +196,66 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>người bán cần mua gian hàng theo các mức giá:</t>
+      <t>người bán cần mua gian hàng theo các mức giá:…</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
+  </si>
+  <si>
+    <t>Người bán được quyền cập nhật trạng thái đơn hàng. Khi người giao hàng mang tiền hàng từ customer về lại cho người bán, người bán có thể cập nhật trạng thái đơn hàng thành thành công hoặc bị huỷ nếu hàng bị trả về. Nếu trạng thái đơn hàng là thành công hoặc huỷ sẽ không được sửa nữa.</t>
+  </si>
+  <si>
+    <t>Có quy đổi ra tiền ảo</t>
+  </si>
+  <si>
+    <t>Không (Merchant và Customer tự thoả thuận)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không lưu lại số tài khoản (Paypal) của khách hàng, mã hoá mật khẩu
+</t>
+  </si>
+  <si>
+    <t>Được quyền thay đổi thông tin tài khoản</t>
+  </si>
+  <si>
+    <t>Người mua được quyền xem lại đơn hàng mình đã đăt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không lưu lại số tài khoản (Paypal) của khách hàng,  mã hoá mật khẩu
+</t>
+  </si>
+  <si>
+    <t>Người bán và người mua gian lận hay có rating thấp sẽ bị khoá tài khoản</t>
+  </si>
+  <si>
+    <t>Khi người bán muốn mua quản cáo hay gian hàng, người bán cần chuyển tiền hoặc thanh toán trực tiếp cho Webmaster</t>
+  </si>
+  <si>
+    <t>Thống kê lợi nhuận thu được từ quảng cáo (theo thời gian, vị trí) và gian hàng (theo thời gian)</t>
+  </si>
+  <si>
+    <t>Thống kê đánh giá của user bằng điểm. Sau ít nhất 5 lần đánh giá, nếu điểm dưới 2 sẽ khoá tài khoản</t>
+  </si>
+  <si>
+    <t>Xác nhận đăng kí tài khoản qua Email</t>
+  </si>
+  <si>
+    <t>Xem đơn hàng của người mua và người bán (khi có tranh chấp của 2 bên)</t>
+  </si>
+  <si>
+    <t>Đăng ký tài khoản bình thường trên web và đăng ký hoàn toàn miễn phí</t>
+  </si>
+  <si>
+    <t>Merchant cũng có thể thống kê đơn hàng của mình (theo ngày, theo sản phẩm, khách hàng và tình trạng đơn hàng)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,53 +310,17 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -518,7 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -589,6 +550,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,30 +577,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,69 +620,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1039,11 +967,11 @@
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50:G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -1052,18 +980,18 @@
     <col min="7" max="7" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:7" ht="21">
+    <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1072,7 +1000,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1">
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -1081,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="44"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1">
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="5">
         <v>3115410179</v>
@@ -1096,11 +1024,11 @@
         <v>35</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1">
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
         <v>3115410139</v>
@@ -1109,11 +1037,11 @@
         <v>36</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1">
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
         <v>3115410098</v>
@@ -1122,11 +1050,11 @@
         <v>37</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1">
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25"/>
       <c r="B7" s="5">
         <v>3115410171</v>
@@ -1135,11 +1063,11 @@
         <v>38</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
         <v>3115410176</v>
@@ -1148,11 +1076,11 @@
         <v>39</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1161,257 +1089,257 @@
       <c r="F9" s="13"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="16"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="E11" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="E12" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="33" t="s">
+      <c r="E14" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="33" t="s">
+      <c r="E15" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1">
-      <c r="A17" s="33" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="49"/>
-    </row>
-    <row r="18" spans="1:7" s="10" customFormat="1" ht="63.75" customHeight="1">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-    </row>
-    <row r="19" spans="1:7" s="10" customFormat="1" ht="93" customHeight="1">
+      <c r="E18" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-    </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1">
+      <c r="E19" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-    </row>
-    <row r="21" spans="1:7" s="10" customFormat="1" ht="27.95" customHeight="1">
+      <c r="E20" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" s="10" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" ht="74.099999999999994" customHeight="1">
+      <c r="E21" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="35" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
-    </row>
-    <row r="23" spans="1:7" s="10" customFormat="1" ht="36.950000000000003" customHeight="1">
+      <c r="E22" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" s="10" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" ht="33" customHeight="1">
+      <c r="E23" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="35" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1">
+      <c r="E24" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-    </row>
-    <row r="26" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1">
+      <c r="E25" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-    </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1">
+      <c r="E26" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="1:7" s="10" customFormat="1" ht="44.1" customHeight="1">
+      <c r="E27" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="35"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-    </row>
-    <row r="29" spans="1:7" s="10" customFormat="1" ht="42" customHeight="1">
+      <c r="E28" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="E29" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -1420,281 +1348,298 @@
       <c r="F30" s="19"/>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1">
-      <c r="A31" s="33" t="s">
+    <row r="31" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="49"/>
-    </row>
-    <row r="32" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-    </row>
-    <row r="33" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-    </row>
-    <row r="34" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1">
+      <c r="E32" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
+    </row>
+    <row r="34" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="60"/>
-    </row>
-    <row r="35" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-    </row>
-    <row r="36" spans="1:7" s="10" customFormat="1" ht="27.95" customHeight="1">
+      <c r="E34" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="39"/>
+      <c r="G34" s="40"/>
+    </row>
+    <row r="35" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
+    </row>
+    <row r="36" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
-      <c r="B36" s="22" t="s">
+      <c r="D36" s="11"/>
+      <c r="E36" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="39"/>
+      <c r="G36" s="40"/>
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-    </row>
-    <row r="37" spans="1:7" s="10" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="35"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-    </row>
-    <row r="38" spans="1:7" s="10" customFormat="1" ht="36" customHeight="1">
+      <c r="E37" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="39"/>
+      <c r="G37" s="40"/>
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="35" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C38" s="35"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-    </row>
-    <row r="39" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="E38" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="39"/>
+      <c r="G38" s="40"/>
+    </row>
+    <row r="39" spans="1:7" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="39"/>
+      <c r="G39" s="40"/>
+    </row>
+    <row r="40" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A40" s="37" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
-    </row>
-    <row r="41" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A41" s="17"/>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
+    </row>
+    <row r="42" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="57"/>
-    </row>
-    <row r="42" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="28"/>
-    </row>
-    <row r="43" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1">
+      <c r="E42" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="39"/>
+      <c r="G42" s="40"/>
+    </row>
+    <row r="43" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
-    </row>
-    <row r="44" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1">
+      <c r="E43" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="39"/>
+      <c r="G43" s="40"/>
+    </row>
+    <row r="44" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
-    </row>
-    <row r="45" spans="1:7" s="10" customFormat="1" ht="42.95" customHeight="1">
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="40"/>
+    </row>
+    <row r="45" spans="1:7" s="10" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="36"/>
       <c r="D45" s="11"/>
-      <c r="E45" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="28"/>
-    </row>
-    <row r="46" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1">
+      <c r="E45" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="39"/>
+      <c r="G45" s="40"/>
+    </row>
+    <row r="46" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="36"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
-    </row>
-    <row r="47" spans="1:7" s="10" customFormat="1" ht="41.1" customHeight="1">
+      <c r="E46" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
+    </row>
+    <row r="47" spans="1:7" s="10" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="28"/>
-    </row>
-    <row r="48" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="E47" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="40"/>
+    </row>
+    <row r="48" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="28"/>
-    </row>
-    <row r="49" spans="1:7" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A49" s="37" t="s">
+      <c r="E48" s="32"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="34"/>
+    </row>
+    <row r="49" spans="1:7" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="39"/>
-    </row>
-    <row r="50" spans="1:7" s="10" customFormat="1" ht="51" customHeight="1">
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
+    </row>
+    <row r="50" spans="1:7" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="36" t="s">
         <v>32</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
-    </row>
-    <row r="51" spans="1:7" s="10" customFormat="1" ht="35.1" customHeight="1">
+      <c r="E50" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="39"/>
+      <c r="G50" s="40"/>
+    </row>
+    <row r="51" spans="1:7" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="36" t="s">
         <v>33</v>
       </c>
       <c r="C51" s="36"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="E51" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="40"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C52" s="35"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
@@ -1711,44 +1656,31 @@
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
     <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E43:G43"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="E45:G45"/>
     <mergeCell ref="E46:G46"/>
     <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Proposal/Proposal.xlsx
+++ b/Proposal/Proposal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>MSSV</t>
   </si>
@@ -155,15 +155,9 @@
     <t>Không</t>
   </si>
   <si>
-    <t>Có quản lý tồn kho, lúc người bán đăng tin bán nhập số lượng và trừ tồn khi phát sinh đơn đặt hàng từ người mua</t>
-  </si>
-  <si>
     <t>Dựa trên tiền vật lý và tiền ảo của Paypal</t>
   </si>
   <si>
-    <t>Thanh toán COD hoặc chuyển tiền qua Paypal</t>
-  </si>
-  <si>
     <t>Sử dụng qua paypal</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
   </si>
   <si>
     <t>Các quyền của người bán: Quản lý sản phẩm bao gồm việc đăng bán sản phẩm và chỉnh sửa thông tin của sản phẩm. Quản lý đơn đặt hàng: Thay đổi thông tin giao hàng như trạng thái, ngày giao hàng. Đối với đơn hàng đã kết thúc ( đơn hàng ở trạng thái giao dịch thành công hoặc huỷ đơn hàng) người bán có quyền đánh giá người mua của đơn hàng đó</t>
-  </si>
-  <si>
-    <t>Các chức năng của người mua: Quản lý giỏ hàng ( thêm, cập nhật số lượng sản phẩm, xoá sản phẩm)</t>
   </si>
   <si>
     <t>Đối với mỗi đơn hàng thành công người mua được quyền đánh giá người bán</t>
@@ -217,22 +208,6 @@
 </t>
   </si>
   <si>
-    <t>Được quyền thay đổi thông tin tài khoản</t>
-  </si>
-  <si>
-    <t>Người mua được quyền xem lại đơn hàng mình đã đăt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Không lưu lại số tài khoản (Paypal) của khách hàng,  mã hoá mật khẩu
-</t>
-  </si>
-  <si>
-    <t>Người bán và người mua gian lận hay có rating thấp sẽ bị khoá tài khoản</t>
-  </si>
-  <si>
-    <t>Khi người bán muốn mua quản cáo hay gian hàng, người bán cần chuyển tiền hoặc thanh toán trực tiếp cho Webmaster</t>
-  </si>
-  <si>
     <t>Thống kê lợi nhuận thu được từ quảng cáo (theo thời gian, vị trí) và gian hàng (theo thời gian)</t>
   </si>
   <si>
@@ -245,10 +220,37 @@
     <t>Xem đơn hàng của người mua và người bán (khi có tranh chấp của 2 bên)</t>
   </si>
   <si>
-    <t>Đăng ký tài khoản bình thường trên web và đăng ký hoàn toàn miễn phí</t>
-  </si>
-  <si>
     <t>Merchant cũng có thể thống kê đơn hàng của mình (theo ngày, theo sản phẩm, khách hàng và tình trạng đơn hàng)</t>
+  </si>
+  <si>
+    <t>Có quản lý tồn kho, lúc người bán đăng tin bán nhập số lượng và trừ tồn khi phát sinh đơn đặt hàng từ người mua, khi huỷ đơn hàng thì cộng tồn</t>
+  </si>
+  <si>
+    <t>Đăng ký tài khoản bình thường trên web và đăng ký hoàn toàn miễn phí. Xác nhận tài khoản qua email</t>
+  </si>
+  <si>
+    <t>Các chức năng của người mua: Quản lý giỏ hàng ( thêm, cập nhật số lượng sản phẩm mua và xoá sản phẩm mua)</t>
+  </si>
+  <si>
+    <t>Được quyền thay đổi thông tin tài khoản (mật khẩu, tên)</t>
+  </si>
+  <si>
+    <t>Người mua được quyền xem lại lịch sử giao dịch</t>
+  </si>
+  <si>
+    <t>Thanh toán COD</t>
+  </si>
+  <si>
+    <t>Mã hoá mật khẩu</t>
+  </si>
+  <si>
+    <t>Người bán và người mua có rating thấp sẽ bị khoá tài khoản</t>
+  </si>
+  <si>
+    <t>Khi người bán muốn mua quản cáo hay gian hàng, người bán cần thanh toán trực tiếp cho Webmaster</t>
+  </si>
+  <si>
+    <t>Quảng cáo tự động theo cách cũ</t>
   </si>
 </sst>
 </file>
@@ -479,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,9 +522,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -559,6 +558,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,36 +588,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -620,6 +619,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -967,8 +972,8 @@
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:G51"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -981,15 +986,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="A1" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -1009,10 +1014,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="46"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -1024,38 +1029,38 @@
         <v>35</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>3115410139</v>
+        <v>3115410098</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>3115410098</v>
+        <v>3115410139</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="5">
         <v>3115410171</v>
       </c>
@@ -1063,8 +1068,8 @@
         <v>38</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -1076,9 +1081,9 @@
         <v>39</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="24"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -1090,525 +1095,526 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="38"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="39" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:7" s="10" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" s="10" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" s="10" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="1:7" s="10" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="38" t="s">
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" s="10" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-    </row>
-    <row r="25" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-    </row>
-    <row r="28" spans="1:7" s="10" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="11"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="36" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
     </row>
     <row r="33" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="34"/>
     </row>
     <row r="34" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="40"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="34"/>
     </row>
     <row r="35" spans="1:7" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
-    </row>
-    <row r="36" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
+    </row>
+    <row r="36" spans="1:7" s="10" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="40"/>
+      <c r="E36" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37" spans="1:7" s="10" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="40"/>
-    </row>
-    <row r="38" spans="1:7" s="10" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="35" t="s">
+      <c r="E37" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="G37" s="34"/>
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="35"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="39"/>
-      <c r="G38" s="40"/>
+      <c r="E38" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
     </row>
     <row r="39" spans="1:7" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="35" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="35"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="40"/>
+      <c r="E39" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
     </row>
     <row r="40" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="21"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="11"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="20"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="42" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="36" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="36"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="40"/>
+      <c r="E42" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="33"/>
+      <c r="G42" s="34"/>
     </row>
     <row r="43" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="40"/>
+      <c r="E43" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="33"/>
+      <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40"/>
+      <c r="E44" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="33"/>
+      <c r="G44" s="34"/>
     </row>
     <row r="45" spans="1:7" s="10" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="36" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="36"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="11"/>
-      <c r="E45" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40"/>
+      <c r="E45" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="33"/>
+      <c r="G45" s="34"/>
     </row>
     <row r="46" spans="1:7" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="36" t="s">
+      <c r="A46" s="16"/>
+      <c r="B46" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="36"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="40"/>
+      <c r="E46" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="33"/>
+      <c r="G46" s="34"/>
     </row>
     <row r="47" spans="1:7" s="10" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="36" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="36"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="40"/>
+      <c r="E47" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="33"/>
+      <c r="G47" s="34"/>
     </row>
     <row r="48" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="21" t="s">
+      <c r="A48" s="16"/>
+      <c r="B48" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="21"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="34"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="1:7" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="48"/>
     </row>
     <row r="50" spans="1:7" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="36" t="s">
+      <c r="A50" s="16"/>
+      <c r="B50" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="36"/>
+      <c r="C50" s="29"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="40"/>
+      <c r="E50" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="33"/>
+      <c r="G50" s="34"/>
     </row>
     <row r="51" spans="1:7" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="36" t="s">
+      <c r="A51" s="16"/>
+      <c r="B51" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="29"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="40"/>
+      <c r="E51" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="33"/>
+      <c r="G51" s="34"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="35" t="s">
+      <c r="A52" s="16"/>
+      <c r="B52" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="35"/>
+      <c r="C52" s="28"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="34"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="E33:G33"/>
+  <mergeCells count="74">
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B32:C32"/>
@@ -1624,11 +1630,22 @@
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E42:G42"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -1643,10 +1660,9 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -1656,6 +1672,10 @@
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="E36:G36"/>
@@ -1668,19 +1688,7 @@
     <mergeCell ref="E45:G45"/>
     <mergeCell ref="E46:G46"/>
     <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E42:G42"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
